--- a/Team-Data/2008-09/12-4-2008-09.xlsx
+++ b/Team-Data/2008-09/12-4-2008-09.xlsx
@@ -811,13 +811,13 @@
         <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="n">
         <v>7</v>
@@ -826,7 +826,7 @@
         <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
@@ -847,7 +847,7 @@
         <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
         <v>24</v>
@@ -862,7 +862,7 @@
         <v>20</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>11</v>
@@ -880,10 +880,10 @@
         <v>14</v>
       </c>
       <c r="BA2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -915,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.895</v>
+        <v>0.9</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J3" t="n">
         <v>75.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.473</v>
+        <v>0.471</v>
       </c>
       <c r="L3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>15.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.35</v>
+        <v>0.344</v>
       </c>
       <c r="O3" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="P3" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.773</v>
+        <v>0.764</v>
       </c>
       <c r="R3" t="n">
         <v>10.4</v>
       </c>
       <c r="S3" t="n">
-        <v>33.1</v>
+        <v>32.7</v>
       </c>
       <c r="T3" t="n">
-        <v>43.5</v>
+        <v>43.1</v>
       </c>
       <c r="U3" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="V3" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W3" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1005,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
@@ -1023,16 +1023,16 @@
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
       </c>
       <c r="AP3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>22</v>
@@ -1041,19 +1041,19 @@
         <v>4</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>21</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AY3" t="n">
         <v>6</v>
@@ -1062,10 +1062,10 @@
         <v>23</v>
       </c>
       <c r="BA3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC3" t="n">
         <v>3</v>
@@ -1175,16 +1175,16 @@
         <v>-2.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
         <v>19</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
         <v>11</v>
@@ -1205,7 +1205,7 @@
         <v>24</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>12</v>
@@ -1244,7 +1244,7 @@
         <v>21</v>
       </c>
       <c r="BA4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1279,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.389</v>
+        <v>0.421</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1297,91 +1297,91 @@
         <v>36.1</v>
       </c>
       <c r="J5" t="n">
-        <v>84.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.429</v>
+        <v>0.432</v>
       </c>
       <c r="L5" t="n">
         <v>5.4</v>
       </c>
       <c r="M5" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.357</v>
+        <v>0.359</v>
       </c>
       <c r="O5" t="n">
-        <v>19.3</v>
+        <v>20.1</v>
       </c>
       <c r="P5" t="n">
-        <v>23.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="R5" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S5" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U5" t="n">
-        <v>18.4</v>
+        <v>18.8</v>
       </c>
       <c r="V5" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="W5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.9</v>
+        <v>-3</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM5" t="n">
         <v>23</v>
@@ -1390,49 +1390,49 @@
         <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS5" t="n">
         <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AV5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AW5" t="n">
         <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
         <v>26</v>
       </c>
       <c r="BA5" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>18</v>
+      </c>
+      <c r="BC5" t="n">
         <v>20</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>19</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>23</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1461,103 +1461,103 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.882</v>
+        <v>0.833</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.9</v>
+        <v>38.4</v>
       </c>
       <c r="J6" t="n">
-        <v>80.3</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.485</v>
+        <v>0.482</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.342</v>
+        <v>0.336</v>
       </c>
       <c r="O6" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="P6" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.778</v>
+        <v>0.775</v>
       </c>
       <c r="R6" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="S6" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T6" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U6" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="V6" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.2</v>
+        <v>21.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>105.5</v>
+        <v>104.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.4</v>
+        <v>12.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
         <v>2</v>
@@ -1569,31 +1569,31 @@
         <v>7</v>
       </c>
       <c r="AN6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP6" t="n">
         <v>7</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
         <v>8</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
@@ -1602,19 +1602,19 @@
         <v>4</v>
       </c>
       <c r="AY6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1721,7 +1721,7 @@
         <v>2.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
         <v>14</v>
@@ -1793,7 +1793,7 @@
         <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
         <v>10</v>
@@ -1903,19 +1903,19 @@
         <v>4.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="n">
         <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>16</v>
@@ -1924,7 +1924,7 @@
         <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL8" t="n">
         <v>16</v>
@@ -1942,13 +1942,13 @@
         <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR8" t="n">
         <v>25</v>
       </c>
       <c r="AS8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT8" t="n">
         <v>13</v>
@@ -1957,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="AV8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
@@ -1966,7 +1966,7 @@
         <v>6</v>
       </c>
       <c r="AY8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ8" t="n">
         <v>20</v>
@@ -2085,13 +2085,13 @@
         <v>0.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>9</v>
       </c>
       <c r="AF9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG9" t="n">
         <v>7</v>
@@ -2118,7 +2118,7 @@
         <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP9" t="n">
         <v>11</v>
@@ -2136,16 +2136,16 @@
         <v>18</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW9" t="n">
         <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
         <v>12</v>
@@ -2154,7 +2154,7 @@
         <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB9" t="n">
         <v>22</v>
@@ -2267,7 +2267,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2282,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="AI10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ10" t="n">
         <v>2</v>
@@ -2294,7 +2294,7 @@
         <v>19</v>
       </c>
       <c r="AM10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
         <v>28</v>
@@ -2324,7 +2324,7 @@
         <v>15</v>
       </c>
       <c r="AW10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX10" t="n">
         <v>1</v>
@@ -2449,7 +2449,7 @@
         <v>3.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2461,13 +2461,13 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK11" t="n">
         <v>29</v>
@@ -2479,7 +2479,7 @@
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO11" t="n">
         <v>8</v>
@@ -2497,10 +2497,10 @@
         <v>5</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV11" t="n">
         <v>8</v>
@@ -2512,7 +2512,7 @@
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
@@ -2631,25 +2631,25 @@
         <v>-0.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF12" t="n">
         <v>19</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
         <v>7</v>
       </c>
       <c r="AI12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>3</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>4</v>
       </c>
       <c r="AK12" t="n">
         <v>18</v>
@@ -2673,10 +2673,10 @@
         <v>8</v>
       </c>
       <c r="AR12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>4</v>
@@ -2691,7 +2691,7 @@
         <v>24</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
@@ -2700,7 +2700,7 @@
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2813,7 +2813,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2828,13 +2828,13 @@
         <v>11</v>
       </c>
       <c r="AI13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
         <v>21</v>
@@ -2917,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.875</v>
+        <v>0.882</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="J14" t="n">
-        <v>86.40000000000001</v>
+        <v>86</v>
       </c>
       <c r="K14" t="n">
         <v>0.475</v>
@@ -2944,67 +2944,67 @@
         <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>17.9</v>
+        <v>17.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.364</v>
+        <v>0.375</v>
       </c>
       <c r="O14" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="P14" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.757</v>
+        <v>0.76</v>
       </c>
       <c r="R14" t="n">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="S14" t="n">
-        <v>33.1</v>
+        <v>33.5</v>
       </c>
       <c r="T14" t="n">
-        <v>46.5</v>
+        <v>46.6</v>
       </c>
       <c r="U14" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="V14" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W14" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="X14" t="n">
         <v>5.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.3</v>
+        <v>21.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.5</v>
+        <v>108.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -3022,34 +3022,34 @@
         <v>14</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP14" t="n">
         <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3058,19 +3058,19 @@
         <v>8</v>
       </c>
       <c r="AY14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3177,7 +3177,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3192,7 +3192,7 @@
         <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ15" t="n">
         <v>22</v>
@@ -3213,7 +3213,7 @@
         <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
         <v>17</v>
@@ -3359,7 +3359,7 @@
         <v>1.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
@@ -3371,7 +3371,7 @@
         <v>16</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
         <v>10</v>
@@ -3392,7 +3392,7 @@
         <v>20</v>
       </c>
       <c r="AO16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP16" t="n">
         <v>21</v>
@@ -3431,7 +3431,7 @@
         <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC16" t="n">
         <v>12</v>
@@ -3463,100 +3463,100 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>0.421</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="n">
         <v>48.8</v>
       </c>
       <c r="I17" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J17" t="n">
-        <v>82</v>
+        <v>81.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.429</v>
+        <v>0.432</v>
       </c>
       <c r="L17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M17" t="n">
         <v>14.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.341</v>
+        <v>0.345</v>
       </c>
       <c r="O17" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="P17" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R17" t="n">
         <v>13.1</v>
       </c>
       <c r="S17" t="n">
-        <v>31.5</v>
+        <v>30.9</v>
       </c>
       <c r="T17" t="n">
-        <v>44.6</v>
+        <v>44</v>
       </c>
       <c r="U17" t="n">
         <v>20.5</v>
       </c>
       <c r="V17" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W17" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X17" t="n">
         <v>3.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="AB17" t="n">
         <v>95.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.3</v>
+        <v>-1.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>3</v>
       </c>
       <c r="AI17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ17" t="n">
         <v>12</v>
@@ -3571,10 +3571,10 @@
         <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
         <v>10</v>
@@ -3586,7 +3586,7 @@
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT17" t="n">
         <v>5</v>
@@ -3595,10 +3595,10 @@
         <v>16</v>
       </c>
       <c r="AV17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW17" t="n">
         <v>28</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>27</v>
       </c>
       <c r="AX17" t="n">
         <v>27</v>
@@ -3607,7 +3607,7 @@
         <v>23</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
         <v>5</v>
@@ -3723,7 +3723,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>26</v>
@@ -3756,16 +3756,16 @@
         <v>23</v>
       </c>
       <c r="AO18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ18" t="n">
         <v>7</v>
       </c>
       <c r="AR18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS18" t="n">
         <v>23</v>
@@ -3777,7 +3777,7 @@
         <v>6</v>
       </c>
       <c r="AV18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW18" t="n">
         <v>29</v>
@@ -3798,7 +3798,7 @@
         <v>21</v>
       </c>
       <c r="BC18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3905,7 +3905,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
         <v>14</v>
@@ -3920,7 +3920,7 @@
         <v>4</v>
       </c>
       <c r="AI19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ19" t="n">
         <v>14</v>
@@ -3935,7 +3935,7 @@
         <v>9</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
         <v>4</v>
@@ -3956,10 +3956,10 @@
         <v>19</v>
       </c>
       <c r="AU19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW19" t="n">
         <v>26</v>
@@ -3971,7 +3971,7 @@
         <v>15</v>
       </c>
       <c r="AZ19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA19" t="n">
         <v>9</v>
@@ -3980,7 +3980,7 @@
         <v>6</v>
       </c>
       <c r="BC19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -4087,13 +4087,13 @@
         <v>3.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
         <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG20" t="n">
         <v>10</v>
@@ -4108,7 +4108,7 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL20" t="n">
         <v>6</v>
@@ -4123,10 +4123,10 @@
         <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR20" t="n">
         <v>26</v>
@@ -4144,19 +4144,19 @@
         <v>9</v>
       </c>
       <c r="AW20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX20" t="n">
         <v>25</v>
       </c>
       <c r="AY20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ20" t="n">
         <v>13</v>
       </c>
       <c r="BA20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB20" t="n">
         <v>20</v>
@@ -4269,7 +4269,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
         <v>26</v>
@@ -4320,7 +4320,7 @@
         <v>10</v>
       </c>
       <c r="AU21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV21" t="n">
         <v>18</v>
@@ -4335,13 +4335,13 @@
         <v>18</v>
       </c>
       <c r="AZ21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA21" t="n">
         <v>30</v>
       </c>
       <c r="BB21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC21" t="n">
         <v>25</v>
@@ -4451,7 +4451,7 @@
         <v>-10.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4490,7 +4490,7 @@
         <v>13</v>
       </c>
       <c r="AQ22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR22" t="n">
         <v>15</v>
@@ -4520,7 +4520,7 @@
         <v>18</v>
       </c>
       <c r="BA22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB22" t="n">
         <v>29</v>
@@ -4633,10 +4633,10 @@
         <v>5.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4645,10 +4645,10 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ23" t="n">
         <v>24</v>
@@ -4663,13 +4663,13 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO23" t="n">
         <v>5</v>
       </c>
       <c r="AP23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4696,16 +4696,16 @@
         <v>2</v>
       </c>
       <c r="AY23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ23" t="n">
         <v>7</v>
       </c>
       <c r="BA23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC23" t="n">
         <v>5</v>
@@ -4815,7 +4815,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -4827,7 +4827,7 @@
         <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI24" t="n">
         <v>11</v>
@@ -4851,7 +4851,7 @@
         <v>27</v>
       </c>
       <c r="AP24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4860,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT24" t="n">
         <v>3</v>
@@ -4875,7 +4875,7 @@
         <v>16</v>
       </c>
       <c r="AX24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY24" t="n">
         <v>24</v>
@@ -4997,7 +4997,7 @@
         <v>0.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -5009,7 +5009,7 @@
         <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI25" t="n">
         <v>9</v>
@@ -5066,7 +5066,7 @@
         <v>9</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
         <v>8</v>
@@ -5101,106 +5101,106 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" t="n">
         <v>14</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>0.737</v>
+        <v>0.7</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>79</v>
+        <v>79.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.466</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="N26" t="n">
         <v>0.415</v>
       </c>
       <c r="O26" t="n">
-        <v>17.7</v>
+        <v>17.2</v>
       </c>
       <c r="P26" t="n">
-        <v>22.8</v>
+        <v>22.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.774</v>
+        <v>0.768</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="T26" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U26" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V26" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W26" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X26" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.8</v>
+        <v>98.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
         <v>14</v>
       </c>
       <c r="AJ26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
@@ -5212,10 +5212,10 @@
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AP26" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AQ26" t="n">
         <v>13</v>
@@ -5227,31 +5227,31 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
         <v>8</v>
       </c>
       <c r="AV26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW26" t="n">
         <v>19</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
         <v>4</v>
@@ -5379,7 +5379,7 @@
         <v>6</v>
       </c>
       <c r="AJ27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK27" t="n">
         <v>6</v>
@@ -5394,13 +5394,13 @@
         <v>30</v>
       </c>
       <c r="AO27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP27" t="n">
         <v>26</v>
       </c>
       <c r="AQ27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR27" t="n">
         <v>27</v>
@@ -5412,10 +5412,10 @@
         <v>28</v>
       </c>
       <c r="AU27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW27" t="n">
         <v>21</v>
@@ -5424,13 +5424,13 @@
         <v>24</v>
       </c>
       <c r="AY27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ27" t="n">
         <v>27</v>
       </c>
       <c r="BA27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB27" t="n">
         <v>17</v>
@@ -5543,7 +5543,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
         <v>14</v>
@@ -5588,7 +5588,7 @@
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT28" t="n">
         <v>25</v>
@@ -5597,7 +5597,7 @@
         <v>17</v>
       </c>
       <c r="AV28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
@@ -5606,7 +5606,7 @@
         <v>29</v>
       </c>
       <c r="AY28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ28" t="n">
         <v>3</v>
@@ -5725,7 +5725,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
         <v>17</v>
@@ -5761,7 +5761,7 @@
         <v>9</v>
       </c>
       <c r="AP29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5776,13 +5776,13 @@
         <v>27</v>
       </c>
       <c r="AU29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV29" t="n">
         <v>14</v>
       </c>
       <c r="AW29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX29" t="n">
         <v>14</v>
@@ -5800,7 +5800,7 @@
         <v>16</v>
       </c>
       <c r="BC29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5937,16 +5937,16 @@
         <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP30" t="n">
         <v>9</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>11</v>
@@ -5979,7 +5979,7 @@
         <v>6</v>
       </c>
       <c r="BB30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC30" t="n">
         <v>9</v>
@@ -6089,7 +6089,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6125,13 +6125,13 @@
         <v>20</v>
       </c>
       <c r="AP31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ31" t="n">
         <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS31" t="n">
         <v>26</v>
@@ -6143,7 +6143,7 @@
         <v>18</v>
       </c>
       <c r="AV31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW31" t="n">
         <v>11</v>
@@ -6155,13 +6155,13 @@
         <v>17</v>
       </c>
       <c r="AZ31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC31" t="n">
         <v>26</v>

--- a/Team-Data/2008-09/12-4-2008-09.xlsx
+++ b/Team-Data/2008-09/12-4-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="n">
         <v>7</v>
@@ -759,7 +826,7 @@
         <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
@@ -780,10 +847,10 @@
         <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR2" t="n">
         <v>18</v>
@@ -795,7 +862,7 @@
         <v>20</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>11</v>
@@ -804,7 +871,7 @@
         <v>22</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
         <v>13</v>
@@ -813,10 +880,10 @@
         <v>14</v>
       </c>
       <c r="BA2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -848,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.895</v>
+        <v>0.9</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J3" t="n">
         <v>75.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.473</v>
+        <v>0.471</v>
       </c>
       <c r="L3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>15.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.35</v>
+        <v>0.344</v>
       </c>
       <c r="O3" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="P3" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.773</v>
+        <v>0.764</v>
       </c>
       <c r="R3" t="n">
         <v>10.4</v>
       </c>
       <c r="S3" t="n">
-        <v>33.1</v>
+        <v>32.7</v>
       </c>
       <c r="T3" t="n">
-        <v>43.5</v>
+        <v>43.1</v>
       </c>
       <c r="U3" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="V3" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W3" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
@@ -956,16 +1023,16 @@
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
       </c>
       <c r="AP3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>22</v>
@@ -974,19 +1041,19 @@
         <v>4</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>21</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AY3" t="n">
         <v>6</v>
@@ -995,10 +1062,10 @@
         <v>23</v>
       </c>
       <c r="BA3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC3" t="n">
         <v>3</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-2.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
         <v>19</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1138,7 +1205,7 @@
         <v>24</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>12</v>
@@ -1147,7 +1214,7 @@
         <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR4" t="n">
         <v>20</v>
@@ -1177,7 +1244,7 @@
         <v>21</v>
       </c>
       <c r="BA4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.389</v>
+        <v>0.421</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1230,91 +1297,91 @@
         <v>36.1</v>
       </c>
       <c r="J5" t="n">
-        <v>84.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.429</v>
+        <v>0.432</v>
       </c>
       <c r="L5" t="n">
         <v>5.4</v>
       </c>
       <c r="M5" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.357</v>
+        <v>0.359</v>
       </c>
       <c r="O5" t="n">
-        <v>19.3</v>
+        <v>20.1</v>
       </c>
       <c r="P5" t="n">
-        <v>23.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="R5" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S5" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U5" t="n">
-        <v>18.4</v>
+        <v>18.8</v>
       </c>
       <c r="V5" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="W5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.9</v>
+        <v>-3</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM5" t="n">
         <v>23</v>
@@ -1323,49 +1390,49 @@
         <v>13</v>
       </c>
       <c r="AO5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS5" t="n">
         <v>14</v>
       </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>13</v>
-      </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AV5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW5" t="n">
         <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
         <v>26</v>
       </c>
       <c r="BA5" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>18</v>
+      </c>
+      <c r="BC5" t="n">
         <v>20</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>19</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>23</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -1394,103 +1461,103 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.882</v>
+        <v>0.833</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.9</v>
+        <v>38.4</v>
       </c>
       <c r="J6" t="n">
-        <v>80.3</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.485</v>
+        <v>0.482</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.342</v>
+        <v>0.336</v>
       </c>
       <c r="O6" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="P6" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.778</v>
+        <v>0.775</v>
       </c>
       <c r="R6" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="S6" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T6" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U6" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="V6" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.2</v>
+        <v>21.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>105.5</v>
+        <v>104.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.4</v>
+        <v>12.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
         <v>2</v>
@@ -1502,31 +1569,31 @@
         <v>7</v>
       </c>
       <c r="AN6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP6" t="n">
         <v>7</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
         <v>8</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
@@ -1535,19 +1602,19 @@
         <v>4</v>
       </c>
       <c r="AY6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB6" t="n">
         <v>4</v>
       </c>
-      <c r="AZ6" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>13</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>3</v>
-      </c>
       <c r="BC6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -1576,106 +1643,106 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
         <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>0.556</v>
+        <v>0.529</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>37.7</v>
+        <v>37.3</v>
       </c>
       <c r="J7" t="n">
-        <v>84.7</v>
+        <v>84.5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.446</v>
+        <v>0.442</v>
       </c>
       <c r="L7" t="n">
         <v>6.4</v>
       </c>
       <c r="M7" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.334</v>
+        <v>0.33</v>
       </c>
       <c r="O7" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P7" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.791</v>
+        <v>0.793</v>
       </c>
       <c r="R7" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="S7" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="T7" t="n">
         <v>46.4</v>
       </c>
       <c r="U7" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="V7" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W7" t="n">
         <v>7.6</v>
       </c>
       <c r="X7" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y7" t="n">
         <v>4.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.2</v>
+        <v>99.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
         <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ7" t="n">
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
         <v>15</v>
@@ -1684,10 +1751,10 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP7" t="n">
         <v>20</v>
@@ -1696,7 +1763,7 @@
         <v>5</v>
       </c>
       <c r="AR7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AS7" t="n">
         <v>1</v>
@@ -1705,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="AU7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
@@ -1714,10 +1781,10 @@
         <v>13</v>
       </c>
       <c r="AX7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ7" t="n">
         <v>4</v>
@@ -1726,7 +1793,7 @@
         <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>0.65</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
@@ -1776,97 +1843,97 @@
         <v>35.9</v>
       </c>
       <c r="J8" t="n">
-        <v>77.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M8" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.351</v>
+        <v>0.345</v>
       </c>
       <c r="O8" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="P8" t="n">
-        <v>31.1</v>
+        <v>31.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.771</v>
+        <v>0.778</v>
       </c>
       <c r="R8" t="n">
         <v>10</v>
       </c>
       <c r="S8" t="n">
-        <v>31.1</v>
+        <v>31.5</v>
       </c>
       <c r="T8" t="n">
-        <v>41.1</v>
+        <v>41.5</v>
       </c>
       <c r="U8" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
         <v>15.9</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X8" t="n">
         <v>6.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA8" t="n">
         <v>24.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.7</v>
+        <v>102.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="n">
         <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>16</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL8" t="n">
         <v>16</v>
       </c>
       <c r="AM8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,28 +1942,28 @@
         <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AR8" t="n">
         <v>25</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU8" t="n">
         <v>2</v>
       </c>
       <c r="AV8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY8" t="n">
         <v>28</v>
@@ -1911,7 +1978,7 @@
         <v>5</v>
       </c>
       <c r="BC8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>0.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>9</v>
       </c>
       <c r="AF9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG9" t="n">
         <v>7</v>
@@ -2051,7 +2118,7 @@
         <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP9" t="n">
         <v>11</v>
@@ -2069,16 +2136,16 @@
         <v>18</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW9" t="n">
         <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
         <v>12</v>
@@ -2087,13 +2154,13 @@
         <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB9" t="n">
         <v>22</v>
       </c>
       <c r="BC9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2215,19 +2282,19 @@
         <v>2</v>
       </c>
       <c r="AI10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ10" t="n">
         <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="n">
         <v>19</v>
       </c>
       <c r="AM10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
         <v>28</v>
@@ -2239,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR10" t="n">
         <v>2</v>
@@ -2257,7 +2324,7 @@
         <v>15</v>
       </c>
       <c r="AW10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -2382,25 +2449,25 @@
         <v>3.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK11" t="n">
         <v>29</v>
@@ -2412,7 +2479,7 @@
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO11" t="n">
         <v>8</v>
@@ -2430,10 +2497,10 @@
         <v>5</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV11" t="n">
         <v>8</v>
@@ -2442,10 +2509,10 @@
         <v>23</v>
       </c>
       <c r="AX11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
@@ -2457,7 +2524,7 @@
         <v>24</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -2564,28 +2631,28 @@
         <v>-0.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF12" t="n">
         <v>19</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>3</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>4</v>
-      </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL12" t="n">
         <v>8</v>
@@ -2609,7 +2676,7 @@
         <v>7</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>4</v>
@@ -2624,7 +2691,7 @@
         <v>24</v>
       </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
@@ -2633,7 +2700,7 @@
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,16 +2825,16 @@
         <v>29</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
         <v>21</v>
@@ -2797,13 +2864,13 @@
         <v>17</v>
       </c>
       <c r="AU13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV13" t="n">
         <v>17</v>
       </c>
       <c r="AW13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.875</v>
+        <v>0.882</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="J14" t="n">
-        <v>86.40000000000001</v>
+        <v>86</v>
       </c>
       <c r="K14" t="n">
         <v>0.475</v>
@@ -2877,67 +2944,67 @@
         <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>17.9</v>
+        <v>17.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.364</v>
+        <v>0.375</v>
       </c>
       <c r="O14" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="P14" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.757</v>
+        <v>0.76</v>
       </c>
       <c r="R14" t="n">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="S14" t="n">
-        <v>33.1</v>
+        <v>33.5</v>
       </c>
       <c r="T14" t="n">
-        <v>46.5</v>
+        <v>46.6</v>
       </c>
       <c r="U14" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="V14" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W14" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="X14" t="n">
         <v>5.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.3</v>
+        <v>21.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.5</v>
+        <v>108.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -2946,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -2955,34 +3022,34 @@
         <v>14</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP14" t="n">
         <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2991,19 +3058,19 @@
         <v>8</v>
       </c>
       <c r="AY14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,7 +3189,7 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
         <v>25</v>
@@ -3146,7 +3213,7 @@
         <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
         <v>17</v>
@@ -3158,7 +3225,7 @@
         <v>21</v>
       </c>
       <c r="AT15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3173,7 +3240,7 @@
         <v>26</v>
       </c>
       <c r="AY15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ15" t="n">
         <v>25</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -3292,19 +3359,19 @@
         <v>1.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG16" t="n">
         <v>16</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
         <v>10</v>
@@ -3325,13 +3392,13 @@
         <v>20</v>
       </c>
       <c r="AO16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP16" t="n">
         <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
         <v>16</v>
@@ -3340,16 +3407,16 @@
         <v>28</v>
       </c>
       <c r="AT16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
         <v>1</v>
       </c>
       <c r="AW16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX16" t="n">
         <v>7</v>
@@ -3364,7 +3431,7 @@
         <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC16" t="n">
         <v>12</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -3396,100 +3463,100 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>0.421</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="n">
         <v>48.8</v>
       </c>
       <c r="I17" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J17" t="n">
-        <v>82</v>
+        <v>81.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.429</v>
+        <v>0.432</v>
       </c>
       <c r="L17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M17" t="n">
         <v>14.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.341</v>
+        <v>0.345</v>
       </c>
       <c r="O17" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="P17" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R17" t="n">
         <v>13.1</v>
       </c>
       <c r="S17" t="n">
-        <v>31.5</v>
+        <v>30.9</v>
       </c>
       <c r="T17" t="n">
-        <v>44.6</v>
+        <v>44</v>
       </c>
       <c r="U17" t="n">
         <v>20.5</v>
       </c>
       <c r="V17" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W17" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X17" t="n">
         <v>3.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="AB17" t="n">
         <v>95.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.3</v>
+        <v>-1.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>3</v>
       </c>
       <c r="AI17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AJ17" t="n">
         <v>12</v>
@@ -3504,10 +3571,10 @@
         <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
         <v>10</v>
@@ -3519,19 +3586,19 @@
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AT17" t="n">
         <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW17" t="n">
         <v>28</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>27</v>
       </c>
       <c r="AX17" t="n">
         <v>27</v>
@@ -3540,7 +3607,7 @@
         <v>23</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>26</v>
@@ -3686,13 +3753,13 @@
         <v>22</v>
       </c>
       <c r="AN18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP18" t="n">
         <v>24</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>25</v>
       </c>
       <c r="AQ18" t="n">
         <v>7</v>
@@ -3704,13 +3771,13 @@
         <v>23</v>
       </c>
       <c r="AT18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU18" t="n">
         <v>6</v>
       </c>
       <c r="AV18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW18" t="n">
         <v>29</v>
@@ -3731,7 +3798,7 @@
         <v>21</v>
       </c>
       <c r="BC18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -3838,28 +3905,28 @@
         <v>-3.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF19" t="n">
         <v>11</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
         <v>4</v>
       </c>
       <c r="AI19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ19" t="n">
         <v>14</v>
       </c>
       <c r="AK19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="n">
         <v>7</v>
@@ -3868,7 +3935,7 @@
         <v>9</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
         <v>4</v>
@@ -3877,7 +3944,7 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR19" t="n">
         <v>14</v>
@@ -3889,10 +3956,10 @@
         <v>19</v>
       </c>
       <c r="AU19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW19" t="n">
         <v>26</v>
@@ -3904,7 +3971,7 @@
         <v>15</v>
       </c>
       <c r="AZ19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA19" t="n">
         <v>9</v>
@@ -3913,7 +3980,7 @@
         <v>6</v>
       </c>
       <c r="BC19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>3.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
         <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG20" t="n">
         <v>10</v>
@@ -4035,13 +4102,13 @@
         <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL20" t="n">
         <v>6</v>
@@ -4053,13 +4120,13 @@
         <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR20" t="n">
         <v>26</v>
@@ -4077,25 +4144,25 @@
         <v>9</v>
       </c>
       <c r="AW20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX20" t="n">
         <v>25</v>
       </c>
       <c r="AY20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ20" t="n">
         <v>13</v>
       </c>
       <c r="BA20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB20" t="n">
         <v>20</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
@@ -4214,7 +4281,7 @@
         <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
         <v>26</v>
@@ -4253,7 +4320,7 @@
         <v>10</v>
       </c>
       <c r="AU21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV21" t="n">
         <v>18</v>
@@ -4268,13 +4335,13 @@
         <v>18</v>
       </c>
       <c r="AZ21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA21" t="n">
         <v>30</v>
       </c>
       <c r="BB21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-10.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4423,7 +4490,7 @@
         <v>13</v>
       </c>
       <c r="AQ22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR22" t="n">
         <v>15</v>
@@ -4453,7 +4520,7 @@
         <v>18</v>
       </c>
       <c r="BA22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB22" t="n">
         <v>29</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>5.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4578,13 +4645,13 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI23" t="n">
         <v>26</v>
       </c>
       <c r="AJ23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK23" t="n">
         <v>12</v>
@@ -4596,13 +4663,13 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO23" t="n">
         <v>5</v>
       </c>
       <c r="AP23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4629,16 +4696,16 @@
         <v>2</v>
       </c>
       <c r="AY23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ23" t="n">
         <v>7</v>
       </c>
       <c r="BA23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB23" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BC23" t="n">
         <v>5</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -4760,7 +4827,7 @@
         <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI24" t="n">
         <v>11</v>
@@ -4784,7 +4851,7 @@
         <v>27</v>
       </c>
       <c r="AP24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4808,7 +4875,7 @@
         <v>16</v>
       </c>
       <c r="AX24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY24" t="n">
         <v>24</v>
@@ -4823,7 +4890,7 @@
         <v>24</v>
       </c>
       <c r="BC24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" t="n">
         <v>11</v>
       </c>
       <c r="F25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" t="n">
-        <v>0.55</v>
+        <v>0.579</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
@@ -4870,10 +4937,10 @@
         <v>37.2</v>
       </c>
       <c r="J25" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.498</v>
+        <v>0.501</v>
       </c>
       <c r="L25" t="n">
         <v>6.6</v>
@@ -4882,67 +4949,67 @@
         <v>17.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.387</v>
+        <v>0.388</v>
       </c>
       <c r="O25" t="n">
         <v>19</v>
       </c>
       <c r="P25" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.745</v>
+        <v>0.741</v>
       </c>
       <c r="R25" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S25" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="T25" t="n">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="U25" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V25" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="W25" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X25" t="n">
         <v>5.2</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="AA25" t="n">
         <v>21.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
       </c>
       <c r="AF25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH25" t="n">
         <v>15</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>22</v>
       </c>
       <c r="AI25" t="n">
         <v>9</v>
@@ -4954,13 +5021,13 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM25" t="n">
         <v>16</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
         <v>16</v>
@@ -4972,16 +5039,16 @@
         <v>27</v>
       </c>
       <c r="AR25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT25" t="n">
         <v>26</v>
       </c>
       <c r="AU25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV25" t="n">
         <v>30</v>
@@ -4993,19 +5060,19 @@
         <v>17</v>
       </c>
       <c r="AY25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ25" t="n">
         <v>9</v>
       </c>
-      <c r="AZ25" t="n">
-        <v>10</v>
-      </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -5034,106 +5101,106 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" t="n">
         <v>14</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>0.737</v>
+        <v>0.7</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>79</v>
+        <v>79.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.466</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="N26" t="n">
         <v>0.415</v>
       </c>
       <c r="O26" t="n">
-        <v>17.7</v>
+        <v>17.2</v>
       </c>
       <c r="P26" t="n">
-        <v>22.8</v>
+        <v>22.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.774</v>
+        <v>0.768</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="T26" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U26" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V26" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W26" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X26" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.8</v>
+        <v>98.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="AD26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF26" t="n">
         <v>5</v>
       </c>
-      <c r="AE26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>4</v>
-      </c>
       <c r="AG26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
         <v>14</v>
       </c>
       <c r="AJ26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
@@ -5145,13 +5212,13 @@
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AP26" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AQ26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR26" t="n">
         <v>4</v>
@@ -5160,7 +5227,7 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
         <v>8</v>
@@ -5172,19 +5239,19 @@
         <v>19</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -5312,7 +5379,7 @@
         <v>6</v>
       </c>
       <c r="AJ27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK27" t="n">
         <v>6</v>
@@ -5327,7 +5394,7 @@
         <v>30</v>
       </c>
       <c r="AO27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP27" t="n">
         <v>26</v>
@@ -5345,10 +5412,10 @@
         <v>28</v>
       </c>
       <c r="AU27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW27" t="n">
         <v>21</v>
@@ -5357,13 +5424,13 @@
         <v>24</v>
       </c>
       <c r="AY27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ27" t="n">
         <v>27</v>
       </c>
       <c r="BA27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB27" t="n">
         <v>17</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -5398,100 +5465,100 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
         <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>0.556</v>
+        <v>0.529</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="J28" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L28" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M28" t="n">
-        <v>20.1</v>
+        <v>19.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.385</v>
+        <v>0.388</v>
       </c>
       <c r="O28" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="P28" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.757</v>
+        <v>0.747</v>
       </c>
       <c r="R28" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="T28" t="n">
-        <v>39.6</v>
+        <v>39.2</v>
       </c>
       <c r="U28" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="V28" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W28" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="X28" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>93.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF28" t="n">
         <v>11</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI28" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AJ28" t="n">
         <v>26</v>
@@ -5506,7 +5573,7 @@
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5515,31 +5582,31 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AR28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS28" t="n">
         <v>11</v>
       </c>
       <c r="AT28" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AU28" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AV28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ28" t="n">
         <v>3</v>
@@ -5551,7 +5618,7 @@
         <v>27</v>
       </c>
       <c r="BC28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>-3.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
         <v>17</v>
       </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG29" t="n">
         <v>17</v>
@@ -5694,7 +5761,7 @@
         <v>9</v>
       </c>
       <c r="AP29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5709,16 +5776,16 @@
         <v>27</v>
       </c>
       <c r="AU29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV29" t="n">
         <v>14</v>
       </c>
       <c r="AW29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY29" t="n">
         <v>20</v>
@@ -5733,7 +5800,7 @@
         <v>16</v>
       </c>
       <c r="BC29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5922,7 @@
         <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ30" t="n">
         <v>23</v>
@@ -5870,16 +5937,16 @@
         <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP30" t="n">
         <v>9</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>11</v>
@@ -5894,10 +5961,10 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX30" t="n">
         <v>20</v>
@@ -5912,7 +5979,7 @@
         <v>6</v>
       </c>
       <c r="BB30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC30" t="n">
         <v>9</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6049,7 +6116,7 @@
         <v>22</v>
       </c>
       <c r="AM31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN31" t="n">
         <v>27</v>
@@ -6058,13 +6125,13 @@
         <v>20</v>
       </c>
       <c r="AP31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS31" t="n">
         <v>26</v>
@@ -6076,7 +6143,7 @@
         <v>18</v>
       </c>
       <c r="AV31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW31" t="n">
         <v>11</v>
@@ -6088,13 +6155,13 @@
         <v>17</v>
       </c>
       <c r="AZ31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC31" t="n">
         <v>26</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-4-2008-09</t>
+          <t>2008-12-04</t>
         </is>
       </c>
     </row>
